--- a/biology/Médecine/Nouria_Salehi/Nouria_Salehi.xlsx
+++ b/biology/Médecine/Nouria_Salehi/Nouria_Salehi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nouria Sultana Salehi, née en Afghanistan, est une physicienne spécialisée en physique nucléaire, biophysicienne et personnalité humanitaire afghano-australienne. 
 Ses recherches en médecine nucléaire permettent la détection et le traitement de divers cancers. Réfugiée d'Afghanistan en Australie, elle y fonde nombreuses œuvres humanitaires et caritatives, notamment l’Afghan Australian Development Organisation.
@@ -514,19 +526,129 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse et formation
-Nouria Sultana Salehi naît en Afghanistan. Elle commence ses études supérieures à l'Université de Kaboul, puis les continue à l'université Claude-Bernard à Lyon, en France, où elle obtient un doctorat[1].
-Carrière scientifique
-Nouria Salehi commence à pratiquer la médecine nucléaire à Kaboul, la capitale de l'Afghanistan, mais elle choisit d'émigrer en Australie en 1981, après l'invasion russe de l'Afghanistan[2].
-Elle travaille comme spécialiste en physique nucléaire et en biophysique dans l'établissement Melbourne Health de 1983 à 2017[3], et ensuite au département de médecine nucléaire du Royal Melbourne Hospital[1].
-Ses recherches en physique appliquée à la médecine nucléaire permettent l'utilisation d'isotopes radioactifs pour détecter et traiter différentes formes de cancer, au bénéfice de nombreux Australiens[4].
-Fondatrice d'associations, œuvre caritative
-Dans le domaine associatif, Nouria Salehi est la fondatrice en 2001 de l’Afghan Australian Development Organization, et elle en est la directrice exécutive[3]. 
-Elle est également la fondatrice de l'Association afghane des volontaires australiens dont elle est la présidente de 2002 à 2006[3]. Elle est aussi membre de comités caritatifs pour un certain nombre d'autres groupes de réfugiés, de groupes œcuméniques et de défense des droits de l'homme[3].
-Reconnaissance publique
-Nouria Salehi reçoit la Médaille de l'Ordre d'Australie lors de l'anniversaire de la Reine en 1997 pour « services rendus aux droits de l'homme, en particulier en faveur de la communauté afghane, des réfugiés et des groupes de soutien aux femmes »[5].
-Elle reçoit en plus la Médaille du centenaire en 2001[6]. Elle est par ailleurs promue membre de l'Ordre d'Australie lors de l'Australia Day Honors 2019 pour « services importants rendus aux communautés afghanes, migrantes et réfugiées »[7].
-Elle est nommée Personnalité australienne de l'année pour l'État de Victoria en 2012[8], et elle est placée au Tableau d'honneur des femmes de Victoria en 2021[9]. Elle devient membre à vie de l'Association de l'Ordre d'Australie en 1997[1] et elle est ambassadrice de l'Australia Day depuis 2012[3].
+          <t>Jeunesse et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nouria Sultana Salehi naît en Afghanistan. Elle commence ses études supérieures à l'Université de Kaboul, puis les continue à l'université Claude-Bernard à Lyon, en France, où elle obtient un doctorat.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nouria_Salehi</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nouria_Salehi</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière scientifique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nouria Salehi commence à pratiquer la médecine nucléaire à Kaboul, la capitale de l'Afghanistan, mais elle choisit d'émigrer en Australie en 1981, après l'invasion russe de l'Afghanistan.
+Elle travaille comme spécialiste en physique nucléaire et en biophysique dans l'établissement Melbourne Health de 1983 à 2017, et ensuite au département de médecine nucléaire du Royal Melbourne Hospital.
+Ses recherches en physique appliquée à la médecine nucléaire permettent l'utilisation d'isotopes radioactifs pour détecter et traiter différentes formes de cancer, au bénéfice de nombreux Australiens.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nouria_Salehi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nouria_Salehi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fondatrice d'associations, œuvre caritative</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le domaine associatif, Nouria Salehi est la fondatrice en 2001 de l’Afghan Australian Development Organization, et elle en est la directrice exécutive. 
+Elle est également la fondatrice de l'Association afghane des volontaires australiens dont elle est la présidente de 2002 à 2006. Elle est aussi membre de comités caritatifs pour un certain nombre d'autres groupes de réfugiés, de groupes œcuméniques et de défense des droits de l'homme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nouria_Salehi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nouria_Salehi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Reconnaissance publique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nouria Salehi reçoit la Médaille de l'Ordre d'Australie lors de l'anniversaire de la Reine en 1997 pour « services rendus aux droits de l'homme, en particulier en faveur de la communauté afghane, des réfugiés et des groupes de soutien aux femmes ».
+Elle reçoit en plus la Médaille du centenaire en 2001. Elle est par ailleurs promue membre de l'Ordre d'Australie lors de l'Australia Day Honors 2019 pour « services importants rendus aux communautés afghanes, migrantes et réfugiées ».
+Elle est nommée Personnalité australienne de l'année pour l'État de Victoria en 2012, et elle est placée au Tableau d'honneur des femmes de Victoria en 2021. Elle devient membre à vie de l'Association de l'Ordre d'Australie en 1997 et elle est ambassadrice de l'Australia Day depuis 2012.
 </t>
         </is>
       </c>
